--- a/views/media/4.xlsx
+++ b/views/media/4.xlsx
@@ -1,55 +1,214 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B49286A-0697-4619-BCB7-36EBFB070828}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9AEAD862-84F3-46E4-A888-286C3783F69A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24615" windowHeight="11190"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Présentation Projets Modélisati" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Adresse mail</t>
-  </si>
-  <si>
-    <t>Identifiant Ent</t>
-  </si>
-  <si>
-    <t>r17000292</t>
-  </si>
-  <si>
-    <t>rohrbach.nicolas@outlook.fr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+  <si>
+    <t>Présentation Projets Modélisation</t>
+  </si>
+  <si>
+    <t>Jeudi 8 Novembre 2019</t>
+  </si>
+  <si>
+    <t>Heure de passage</t>
+  </si>
+  <si>
+    <t>Groupe, Equipe</t>
+  </si>
+  <si>
+    <t>Noms</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>13h30</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe1</t>
+  </si>
+  <si>
+    <t>Thouvenel, Urgenti, Vilminot, Ziane</t>
+  </si>
+  <si>
+    <t>Infographie. Engrenages</t>
+  </si>
+  <si>
+    <t>13h45</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe1</t>
+  </si>
+  <si>
+    <t>Angot, Bacci, Bracq, Fillols, Maurer</t>
+  </si>
+  <si>
+    <t>Automate cellulaire, Tsunami</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe2</t>
+  </si>
+  <si>
+    <t>Dely, Dubruc, Ferrer, Henry</t>
+  </si>
+  <si>
+    <t>Dynamique de populations</t>
+  </si>
+  <si>
+    <t>14h15</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe2</t>
+  </si>
+  <si>
+    <t>Alvarez, Rippol, Ruiz, Vatin</t>
+  </si>
+  <si>
+    <t>Infographie, Système solaire</t>
+  </si>
+  <si>
+    <t>14h30</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe3</t>
+  </si>
+  <si>
+    <t>Kanboui, Rescigno, Salles, Simonetti-Diez, Zaid Mohamed</t>
+  </si>
+  <si>
+    <t>Cryptographie RSA</t>
+  </si>
+  <si>
+    <t>14h45</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe3</t>
+  </si>
+  <si>
+    <t>Ozannat, Plee, Reymond, Sevilla, Siderikoudis</t>
+  </si>
+  <si>
+    <t>Infographie, Planète Terre</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe4</t>
+  </si>
+  <si>
+    <t>Guyomarc’h, Hsia, Levet, Panis</t>
+  </si>
+  <si>
+    <t>Infographie. Pigeon</t>
+  </si>
+  <si>
+    <t>15h45</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe4</t>
+  </si>
+  <si>
+    <t>Bourges, Caressa, Hocquet, Lejeune</t>
+  </si>
+  <si>
+    <t>Automate cellulaire, écoulement d’un fluide</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe5</t>
+  </si>
+  <si>
+    <t>Dalloz, Piccina, Pouzargues, Vouriot, Wagner</t>
+  </si>
+  <si>
+    <t>Infographie. Fractales</t>
+  </si>
+  <si>
+    <t>16h15</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe5</t>
+  </si>
+  <si>
+    <t>Leclere, Minguella, Petre</t>
+  </si>
+  <si>
+    <t>Cryptographie, Courbes elliptiques</t>
+  </si>
+  <si>
+    <t>16h30</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe6</t>
+  </si>
+  <si>
+    <t>Aguedo, Bertolone, Caouini, Chabas</t>
+  </si>
+  <si>
+    <t>Infographie. Voiture</t>
+  </si>
+  <si>
+    <t>16h45</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe6</t>
+  </si>
+  <si>
+    <t>Amraoui, Boyer, Claramount, Clerc, Houpert</t>
+  </si>
+  <si>
+    <t>Infographie, animation et fractales</t>
+  </si>
+  <si>
+    <t>17h</t>
+  </si>
+  <si>
+    <t>Groupe1, Equipe7</t>
+  </si>
+  <si>
+    <t>Bernard, Beyer, Boulahrouz, Louriachi</t>
+  </si>
+  <si>
+    <t>17h15</t>
+  </si>
+  <si>
+    <t>Groupe2, Equipe7</t>
+  </si>
+  <si>
+    <t>Dupont, Godest, Guerin</t>
+  </si>
+  <si>
+    <t>Infographie, Hélicoptère</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,23 +217,336 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF00000A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -82,18 +554,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="42">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -125,7 +882,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +894,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -184,23 +941,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,23 +976,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,35 +1127,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF91042-67A8-4DEA-9A2F-AD5E2A5EF05B}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B71CB0FD-A9E9-4F56-80EF-BA3A28FEAF96}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="22">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
 </file>